--- a/ActivityTracker.xlsx
+++ b/ActivityTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnologyDataServic\OneDrive - TCG3PL\Documents\Admin\ActivityTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TechnologyDataServic\OneDrive - TCG3PL\Documents\Admin\ActivityTracker\activity_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C69CAA-C129-4F6D-95D9-C0984FABBEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F77FA99-41F6-4610-A945-91EF7885FFAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="660" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{F0E93CB4-87E1-49A8-872E-3F5DCA14E858}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19430" windowHeight="10080" xr2:uid="{F0E93CB4-87E1-49A8-872E-3F5DCA14E858}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -1576,6 +1575,34 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2452,6 +2479,90 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2661,6 +2772,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9D3D-4A8F-B2E0-F3A5530F3FD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2678,6 +2794,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9D3D-4A8F-B2E0-F3A5530F3FD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2695,6 +2816,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9D3D-4A8F-B2E0-F3A5530F3FD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2712,6 +2838,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9D3D-4A8F-B2E0-F3A5530F3FD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -2730,6 +2861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-9D3D-4A8F-B2E0-F3A5530F3FD9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3878,9 +4014,7 @@
         <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3">
-              <a:lumMod val="60000"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -3954,6 +4088,62 @@
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4305,6 +4495,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7F79-4261-960C-EA718523747C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -4323,6 +4518,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7F79-4261-960C-EA718523747C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -4341,6 +4541,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-7F79-4261-960C-EA718523747C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -4359,6 +4564,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-7F79-4261-960C-EA718523747C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -4376,6 +4586,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-7F79-4261-960C-EA718523747C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -4505,6 +4720,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-7F79-4261-960C-EA718523747C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4524,6 +4742,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-7F79-4261-960C-EA718523747C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4543,6 +4764,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-7F79-4261-960C-EA718523747C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4562,6 +4786,9 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-7F79-4261-960C-EA718523747C}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5211,6 +5438,48 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -5602,6 +5871,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-993B-44A2-BA37-8CD323ED3638}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -5620,6 +5894,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-993B-44A2-BA37-8CD323ED3638}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -18940,7 +19219,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A7DED00-8442-4876-A875-9F39F3722C43}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A7DED00-8442-4876-A875-9F39F3722C43}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -19349,62 +19628,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C66BC602-0C83-46B8-9C53-040E86B0FEE8}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="17">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="14"/>
-        <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" x="4"/>
-        <item h="1" x="13"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="1">
-    <i>
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{729DE27C-A748-4726-B076-916E817D58B8}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{729DE27C-A748-4726-B076-916E817D58B8}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -19461,8 +19685,63 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C66BC602-0C83-46B8-9C53-040E86B0FEE8}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="17">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="14"/>
+        <item x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" x="4"/>
+        <item h="1" x="13"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14227B4A-8A51-4AC2-B80E-469FF8ECAAEE}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14227B4A-8A51-4AC2-B80E-469FF8ECAAEE}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -19800,7 +20079,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE6DF294-F486-4A0A-A6EC-2B70EB7FBF56}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE6DF294-F486-4A0A-A6EC-2B70EB7FBF56}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
@@ -20006,7 +20285,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89B9019D-AE5E-4462-9A2F-5343F95931B2}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89B9019D-AE5E-4462-9A2F-5343F95931B2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
@@ -20285,7 +20564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15BE3445-2441-426D-AC57-EEB8783769EA}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15BE3445-2441-426D-AC57-EEB8783769EA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
@@ -20649,7 +20928,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CACA95D8-3D91-42EA-8CEA-77772D759102}" name="PivotTable1" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CACA95D8-3D91-42EA-8CEA-77772D759102}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" numFmtId="14" multipleItemSelectionAllowed="1" showAll="0">
@@ -21599,8 +21878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B78D73-36CD-429D-94CE-73817DAE7A9A}">
   <dimension ref="A1:G1035"/>
   <sheetViews>
-    <sheetView topLeftCell="A1022" workbookViewId="0">
-      <selection activeCell="F1026" sqref="F1026"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40011,7 +40290,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E767" s="7">
-        <f t="shared" ref="E767:E798" si="20">(D767-C767)*24</f>
+        <f t="shared" ref="E767:E782" si="20">(D767-C767)*24</f>
         <v>1.9166666666666665</v>
       </c>
       <c r="F767" t="s">
@@ -40395,7 +40674,7 @@
         <v>0.59375</v>
       </c>
       <c r="E783" s="7">
-        <f>(D783-C783)*24</f>
+        <f t="shared" ref="E783:E814" si="21">(D783-C783)*24</f>
         <v>1.7499999999999991</v>
       </c>
       <c r="F783" t="s">
@@ -40419,7 +40698,7 @@
         <v>0.6875</v>
       </c>
       <c r="E784" s="7">
-        <f>(D784-C784)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F784" t="s">
@@ -40443,7 +40722,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E785" s="7">
-        <f>(D785-C785)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F785" t="s">
@@ -40467,7 +40746,7 @@
         <v>0.5</v>
       </c>
       <c r="E786" s="7">
-        <f>(D786-C786)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F786" t="s">
@@ -40491,7 +40770,7 @@
         <v>0.59375</v>
       </c>
       <c r="E787" s="7">
-        <f>(D787-C787)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F787" t="s">
@@ -40515,7 +40794,7 @@
         <v>0.6875</v>
       </c>
       <c r="E788" s="7">
-        <f>(D788-C788)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F788" t="s">
@@ -40539,7 +40818,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E789" s="7">
-        <f>(D789-C789)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F789" t="s">
@@ -40563,7 +40842,7 @@
         <v>0.5</v>
       </c>
       <c r="E790" s="7">
-        <f>(D790-C790)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F790" t="s">
@@ -40587,7 +40866,7 @@
         <v>0.59375</v>
       </c>
       <c r="E791" s="7">
-        <f>(D791-C791)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F791" t="s">
@@ -40611,7 +40890,7 @@
         <v>0.67708333333333337</v>
       </c>
       <c r="E792" s="7">
-        <f>(D792-C792)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000018</v>
       </c>
       <c r="F792" t="s">
@@ -40635,7 +40914,7 @@
         <v>0.6875</v>
       </c>
       <c r="E793" s="7">
-        <f>(D793-C793)*24</f>
+        <f t="shared" si="21"/>
         <v>0.24999999999999911</v>
       </c>
       <c r="F793" t="s">
@@ -40659,7 +40938,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E794" s="7">
-        <f>(D794-C794)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F794" t="s">
@@ -40683,7 +40962,7 @@
         <v>0.5</v>
       </c>
       <c r="E795" s="7">
-        <f>(D795-C795)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F795" t="s">
@@ -40707,7 +40986,7 @@
         <v>0.59375</v>
       </c>
       <c r="E796" s="7">
-        <f>(D796-C796)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F796" t="s">
@@ -40731,7 +41010,7 @@
         <v>0.625</v>
       </c>
       <c r="E797" s="7">
-        <f>(D797-C797)*24</f>
+        <f t="shared" si="21"/>
         <v>0.50000000000000089</v>
       </c>
       <c r="F797" t="s">
@@ -40755,7 +41034,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E798" s="7">
-        <f>(D798-C798)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F798" t="s">
@@ -40779,7 +41058,7 @@
         <v>0.5</v>
       </c>
       <c r="E799" s="7">
-        <f>(D799-C799)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F799" t="s">
@@ -40803,7 +41082,7 @@
         <v>0.59375</v>
       </c>
       <c r="E800" s="7">
-        <f>(D800-C800)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F800" t="s">
@@ -40827,7 +41106,7 @@
         <v>0.625</v>
       </c>
       <c r="E801" s="7">
-        <f>(D801-C801)*24</f>
+        <f t="shared" si="21"/>
         <v>0.50000000000000089</v>
       </c>
       <c r="F801" t="s">
@@ -40851,7 +41130,7 @@
         <v>0.375</v>
       </c>
       <c r="E802" s="7">
-        <f>(D802-C802)*24</f>
+        <f t="shared" si="21"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F802" t="s">
@@ -40875,7 +41154,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E803" s="7">
-        <f>(D803-C803)*24</f>
+        <f t="shared" si="21"/>
         <v>1.0000000000000004</v>
       </c>
       <c r="F803" t="s">
@@ -40899,7 +41178,7 @@
         <v>0.5</v>
       </c>
       <c r="E804" s="7">
-        <f>(D804-C804)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F804" t="s">
@@ -40923,7 +41202,7 @@
         <v>0.59375</v>
       </c>
       <c r="E805" s="7">
-        <f>(D805-C805)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F805" t="s">
@@ -40947,7 +41226,7 @@
         <v>0.6875</v>
       </c>
       <c r="E806" s="7">
-        <f>(D806-C806)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F806" t="s">
@@ -40971,7 +41250,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E807" s="7">
-        <f>(D807-C807)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F807" t="s">
@@ -40995,7 +41274,7 @@
         <v>0.5</v>
       </c>
       <c r="E808" s="7">
-        <f>(D808-C808)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F808" t="s">
@@ -41019,7 +41298,7 @@
         <v>0.59375</v>
       </c>
       <c r="E809" s="7">
-        <f>(D809-C809)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F809" t="s">
@@ -41043,7 +41322,7 @@
         <v>0.6875</v>
       </c>
       <c r="E810" s="7">
-        <f>(D810-C810)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F810" t="s">
@@ -41067,7 +41346,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E811" s="7">
-        <f>(D811-C811)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F811" t="s">
@@ -41091,7 +41370,7 @@
         <v>0.5</v>
       </c>
       <c r="E812" s="7">
-        <f>(D812-C812)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F812" t="s">
@@ -41115,7 +41394,7 @@
         <v>0.59375</v>
       </c>
       <c r="E813" s="7">
-        <f>(D813-C813)*24</f>
+        <f t="shared" si="21"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F813" t="s">
@@ -41139,7 +41418,7 @@
         <v>0.6875</v>
       </c>
       <c r="E814" s="7">
-        <f>(D814-C814)*24</f>
+        <f t="shared" si="21"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F814" t="s">
@@ -41163,7 +41442,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E815" s="7">
-        <f>(D815-C815)*24</f>
+        <f t="shared" ref="E815:E846" si="22">(D815-C815)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F815" t="s">
@@ -41187,7 +41466,7 @@
         <v>0.5</v>
       </c>
       <c r="E816" s="7">
-        <f>(D816-C816)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F816" t="s">
@@ -41211,7 +41490,7 @@
         <v>0.59375</v>
       </c>
       <c r="E817" s="7">
-        <f>(D817-C817)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F817" t="s">
@@ -41235,7 +41514,7 @@
         <v>0.6875</v>
       </c>
       <c r="E818" s="7">
-        <f>(D818-C818)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F818" t="s">
@@ -41259,7 +41538,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E819" s="7">
-        <f>(D819-C819)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F819" t="s">
@@ -41283,7 +41562,7 @@
         <v>0.5</v>
       </c>
       <c r="E820" s="7">
-        <f>(D820-C820)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F820" t="s">
@@ -41307,7 +41586,7 @@
         <v>0.59375</v>
       </c>
       <c r="E821" s="7">
-        <f>(D821-C821)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F821" t="s">
@@ -41331,7 +41610,7 @@
         <v>0.6875</v>
       </c>
       <c r="E822" s="7">
-        <f>(D822-C822)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F822" t="s">
@@ -41355,7 +41634,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E823" s="7">
-        <f>(D823-C823)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F823" t="s">
@@ -41379,7 +41658,7 @@
         <v>0.5</v>
       </c>
       <c r="E824" s="7">
-        <f>(D824-C824)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F824" t="s">
@@ -41403,7 +41682,7 @@
         <v>0.59375</v>
       </c>
       <c r="E825" s="7">
-        <f>(D825-C825)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F825" t="s">
@@ -41427,7 +41706,7 @@
         <v>0.6875</v>
       </c>
       <c r="E826" s="7">
-        <f>(D826-C826)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F826" t="s">
@@ -41451,7 +41730,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E827" s="7">
-        <f>(D827-C827)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F827" t="s">
@@ -41475,7 +41754,7 @@
         <v>0.5</v>
       </c>
       <c r="E828" s="7">
-        <f>(D828-C828)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F828" t="s">
@@ -41499,7 +41778,7 @@
         <v>0.59375</v>
       </c>
       <c r="E829" s="7">
-        <f>(D829-C829)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F829" t="s">
@@ -41523,7 +41802,7 @@
         <v>0.6875</v>
       </c>
       <c r="E830" s="7">
-        <f>(D830-C830)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F830" t="s">
@@ -41547,7 +41826,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E831" s="7">
-        <f>(D831-C831)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F831" t="s">
@@ -41571,7 +41850,7 @@
         <v>0.5</v>
       </c>
       <c r="E832" s="7">
-        <f>(D832-C832)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F832" t="s">
@@ -41595,7 +41874,7 @@
         <v>0.59375</v>
       </c>
       <c r="E833" s="7">
-        <f>(D833-C833)*24</f>
+        <f t="shared" si="22"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F833" t="s">
@@ -41619,7 +41898,7 @@
         <v>0.6875</v>
       </c>
       <c r="E834" s="7">
-        <f>(D834-C834)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F834" t="s">
@@ -41643,7 +41922,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E835" s="7">
-        <f>(D835-C835)*24</f>
+        <f t="shared" si="22"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F835" t="s">
@@ -41667,7 +41946,7 @@
         <v>0.5</v>
       </c>
       <c r="E836" s="7">
-        <f t="shared" ref="E836:E854" si="21">(D836-C836)*24</f>
+        <f t="shared" ref="E836:E854" si="23">(D836-C836)*24</f>
         <v>1.7500000000000004</v>
       </c>
       <c r="F836" t="s">
@@ -41691,7 +41970,7 @@
         <v>0.59375</v>
       </c>
       <c r="E837" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F837" t="s">
@@ -41715,7 +41994,7 @@
         <v>0.6875</v>
       </c>
       <c r="E838" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F838" t="s">
@@ -41739,7 +42018,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E839" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F839" t="s">
@@ -41763,7 +42042,7 @@
         <v>0.5</v>
       </c>
       <c r="E840" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F840" t="s">
@@ -41787,7 +42066,7 @@
         <v>0.59375</v>
       </c>
       <c r="E841" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F841" t="s">
@@ -41811,7 +42090,7 @@
         <v>0.6875</v>
       </c>
       <c r="E842" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F842" t="s">
@@ -41835,7 +42114,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E843" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F843" t="s">
@@ -41859,7 +42138,7 @@
         <v>0.5</v>
       </c>
       <c r="E844" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F844" t="s">
@@ -41883,7 +42162,7 @@
         <v>0.59375</v>
       </c>
       <c r="E845" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F845" t="s">
@@ -41907,7 +42186,7 @@
         <v>0.6875</v>
       </c>
       <c r="E846" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F846" t="s">
@@ -41931,7 +42210,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E847" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F847" t="s">
@@ -41955,7 +42234,7 @@
         <v>0.5</v>
       </c>
       <c r="E848" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F848" t="s">
@@ -41979,7 +42258,7 @@
         <v>0.59375</v>
       </c>
       <c r="E849" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F849" t="s">
@@ -42003,7 +42282,7 @@
         <v>0.6875</v>
       </c>
       <c r="E850" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F850" t="s">
@@ -42027,7 +42306,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E851" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F851" t="s">
@@ -42051,7 +42330,7 @@
         <v>0.5</v>
       </c>
       <c r="E852" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F852" t="s">
@@ -42075,7 +42354,7 @@
         <v>0.59375</v>
       </c>
       <c r="E853" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F853" t="s">
@@ -42099,7 +42378,7 @@
         <v>0.6875</v>
       </c>
       <c r="E854" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F854" t="s">
@@ -42123,7 +42402,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E855" s="7">
-        <f>(D855-C855)*24</f>
+        <f t="shared" ref="E855:E863" si="24">(D855-C855)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F855" t="s">
@@ -42147,7 +42426,7 @@
         <v>0.5</v>
       </c>
       <c r="E856" s="7">
-        <f>(D856-C856)*24</f>
+        <f t="shared" si="24"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F856" t="s">
@@ -42171,7 +42450,7 @@
         <v>0.59375</v>
       </c>
       <c r="E857" s="7">
-        <f>(D857-C857)*24</f>
+        <f t="shared" si="24"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F857" t="s">
@@ -42195,7 +42474,7 @@
         <v>0.6875</v>
       </c>
       <c r="E858" s="7">
-        <f>(D858-C858)*24</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F858" t="s">
@@ -42219,7 +42498,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E859" s="7">
-        <f>(D859-C859)*24</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F859" t="s">
@@ -42243,7 +42522,7 @@
         <v>0.5</v>
       </c>
       <c r="E860" s="7">
-        <f>(D860-C860)*24</f>
+        <f t="shared" si="24"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F860" t="s">
@@ -42267,7 +42546,7 @@
         <v>0.59375</v>
       </c>
       <c r="E861" s="7">
-        <f>(D861-C861)*24</f>
+        <f t="shared" si="24"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F861" t="s">
@@ -42291,7 +42570,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E862" s="7">
-        <f>(D862-C862)*24</f>
+        <f t="shared" si="24"/>
         <v>0.25000000000000178</v>
       </c>
       <c r="F862" t="s">
@@ -42315,7 +42594,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E863" s="7">
-        <f>(D863-C863)*24</f>
+        <f t="shared" si="24"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F863" t="s">
@@ -42339,7 +42618,7 @@
         <v>0.5</v>
       </c>
       <c r="E864" s="7">
-        <f t="shared" ref="E864:E866" si="22">(D864-C864)*24</f>
+        <f t="shared" ref="E864:E866" si="25">(D864-C864)*24</f>
         <v>1.7500000000000004</v>
       </c>
       <c r="F864" t="s">
@@ -42363,7 +42642,7 @@
         <v>0.59375</v>
       </c>
       <c r="E865" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F865" t="s">
@@ -42387,7 +42666,7 @@
         <v>0.6875</v>
       </c>
       <c r="E866" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F866" t="s">
@@ -42411,7 +42690,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E867" s="7">
-        <f>(D867-C867)*24</f>
+        <f t="shared" ref="E867:E898" si="26">(D867-C867)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F867" t="s">
@@ -42435,7 +42714,7 @@
         <v>0.5</v>
       </c>
       <c r="E868" s="7">
-        <f>(D868-C868)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F868" t="s">
@@ -42459,7 +42738,7 @@
         <v>0.59375</v>
       </c>
       <c r="E869" s="7">
-        <f>(D869-C869)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F869" t="s">
@@ -42483,7 +42762,7 @@
         <v>0.6875</v>
       </c>
       <c r="E870" s="7">
-        <f>(D870-C870)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F870" t="s">
@@ -42507,7 +42786,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E871" s="7">
-        <f>(D871-C871)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F871" t="s">
@@ -42531,7 +42810,7 @@
         <v>0.5</v>
       </c>
       <c r="E872" s="7">
-        <f>(D872-C872)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F872" t="s">
@@ -42555,7 +42834,7 @@
         <v>0.59375</v>
       </c>
       <c r="E873" s="7">
-        <f>(D873-C873)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F873" t="s">
@@ -42579,7 +42858,7 @@
         <v>0.6875</v>
       </c>
       <c r="E874" s="7">
-        <f>(D874-C874)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F874" t="s">
@@ -42603,7 +42882,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E875" s="7">
-        <f>(D875-C875)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F875" t="s">
@@ -42627,7 +42906,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E876" s="7">
-        <f>(D876-C876)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F876" t="s">
@@ -42651,7 +42930,7 @@
         <v>0.5</v>
       </c>
       <c r="E877" s="7">
-        <f>(D877-C877)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F877" t="s">
@@ -42675,7 +42954,7 @@
         <v>0.59375</v>
       </c>
       <c r="E878" s="7">
-        <f>(D878-C878)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F878" t="s">
@@ -42699,7 +42978,7 @@
         <v>0.6875</v>
       </c>
       <c r="E879" s="7">
-        <f>(D879-C879)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F879" t="s">
@@ -42723,7 +43002,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E880" s="7">
-        <f>(D880-C880)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F880" t="s">
@@ -42747,7 +43026,7 @@
         <v>0.5</v>
       </c>
       <c r="E881" s="7">
-        <f>(D881-C881)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F881" t="s">
@@ -42771,7 +43050,7 @@
         <v>0.59375</v>
       </c>
       <c r="E882" s="7">
-        <f>(D882-C882)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F882" t="s">
@@ -42795,7 +43074,7 @@
         <v>0.6875</v>
       </c>
       <c r="E883" s="7">
-        <f>(D883-C883)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F883" t="s">
@@ -42819,7 +43098,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E884" s="7">
-        <f>(D884-C884)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F884" t="s">
@@ -42843,7 +43122,7 @@
         <v>0.5</v>
       </c>
       <c r="E885" s="7">
-        <f>(D885-C885)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F885" t="s">
@@ -42867,7 +43146,7 @@
         <v>0.59375</v>
       </c>
       <c r="E886" s="7">
-        <f>(D886-C886)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F886" t="s">
@@ -42891,7 +43170,7 @@
         <v>0.6875</v>
       </c>
       <c r="E887" s="7">
-        <f>(D887-C887)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F887" t="s">
@@ -42915,7 +43194,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E888" s="7">
-        <f>(D888-C888)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F888" t="s">
@@ -42939,7 +43218,7 @@
         <v>0.5</v>
       </c>
       <c r="E889" s="7">
-        <f>(D889-C889)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F889" t="s">
@@ -42963,7 +43242,7 @@
         <v>0.59375</v>
       </c>
       <c r="E890" s="7">
-        <f>(D890-C890)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F890" t="s">
@@ -42987,7 +43266,7 @@
         <v>0.6875</v>
       </c>
       <c r="E891" s="7">
-        <f>(D891-C891)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F891" t="s">
@@ -43011,7 +43290,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E892" s="7">
-        <f>(D892-C892)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F892" t="s">
@@ -43035,7 +43314,7 @@
         <v>0.5</v>
       </c>
       <c r="E893" s="7">
-        <f>(D893-C893)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F893" t="s">
@@ -43059,7 +43338,7 @@
         <v>0.59375</v>
       </c>
       <c r="E894" s="7">
-        <f>(D894-C894)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F894" t="s">
@@ -43083,7 +43362,7 @@
         <v>0.6875</v>
       </c>
       <c r="E895" s="7">
-        <f>(D895-C895)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F895" t="s">
@@ -43107,7 +43386,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E896" s="7">
-        <f>(D896-C896)*24</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F896" t="s">
@@ -43131,7 +43410,7 @@
         <v>0.5</v>
       </c>
       <c r="E897" s="7">
-        <f>(D897-C897)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F897" t="s">
@@ -43155,7 +43434,7 @@
         <v>0.59375</v>
       </c>
       <c r="E898" s="7">
-        <f>(D898-C898)*24</f>
+        <f t="shared" si="26"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F898" t="s">
@@ -43179,7 +43458,7 @@
         <v>0.6875</v>
       </c>
       <c r="E899" s="7">
-        <f>(D899-C899)*24</f>
+        <f t="shared" ref="E899:E930" si="27">(D899-C899)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F899" t="s">
@@ -43203,7 +43482,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E900" s="7">
-        <f>(D900-C900)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F900" t="s">
@@ -43227,7 +43506,7 @@
         <v>0.5</v>
       </c>
       <c r="E901" s="7">
-        <f>(D901-C901)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F901" t="s">
@@ -43251,7 +43530,7 @@
         <v>0.59375</v>
       </c>
       <c r="E902" s="7">
-        <f>(D902-C902)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F902" t="s">
@@ -43275,7 +43554,7 @@
         <v>0.6875</v>
       </c>
       <c r="E903" s="7">
-        <f>(D903-C903)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F903" t="s">
@@ -43299,7 +43578,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E904" s="7">
-        <f>(D904-C904)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F904" t="s">
@@ -43323,7 +43602,7 @@
         <v>0.5</v>
       </c>
       <c r="E905" s="7">
-        <f>(D905-C905)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F905" t="s">
@@ -43347,7 +43626,7 @@
         <v>0.59375</v>
       </c>
       <c r="E906" s="7">
-        <f>(D906-C906)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F906" t="s">
@@ -43371,7 +43650,7 @@
         <v>0.6875</v>
       </c>
       <c r="E907" s="7">
-        <f>(D907-C907)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F907" t="s">
@@ -43395,7 +43674,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E908" s="7">
-        <f>(D908-C908)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F908" t="s">
@@ -43419,7 +43698,7 @@
         <v>0.5</v>
       </c>
       <c r="E909" s="7">
-        <f>(D909-C909)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F909" t="s">
@@ -43443,7 +43722,7 @@
         <v>0.59375</v>
       </c>
       <c r="E910" s="7">
-        <f>(D910-C910)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F910" t="s">
@@ -43467,7 +43746,7 @@
         <v>0.6875</v>
       </c>
       <c r="E911" s="7">
-        <f>(D911-C911)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F911" t="s">
@@ -43491,7 +43770,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E912" s="7">
-        <f>(D912-C912)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F912" t="s">
@@ -43515,7 +43794,7 @@
         <v>0.5</v>
       </c>
       <c r="E913" s="7">
-        <f>(D913-C913)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F913" t="s">
@@ -43539,7 +43818,7 @@
         <v>0.59375</v>
       </c>
       <c r="E914" s="7">
-        <f>(D914-C914)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F914" t="s">
@@ -43563,7 +43842,7 @@
         <v>0.6875</v>
       </c>
       <c r="E915" s="7">
-        <f>(D915-C915)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F915" t="s">
@@ -43587,7 +43866,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E916" s="7">
-        <f>(D916-C916)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F916" t="s">
@@ -43611,7 +43890,7 @@
         <v>0.5</v>
       </c>
       <c r="E917" s="7">
-        <f>(D917-C917)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F917" t="s">
@@ -43635,7 +43914,7 @@
         <v>0.59375</v>
       </c>
       <c r="E918" s="7">
-        <f>(D918-C918)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F918" t="s">
@@ -43659,7 +43938,7 @@
         <v>0.6875</v>
       </c>
       <c r="E919" s="7">
-        <f>(D919-C919)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F919" t="s">
@@ -43683,7 +43962,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E920" s="7">
-        <f>(D920-C920)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F920" t="s">
@@ -43707,7 +43986,7 @@
         <v>0.5</v>
       </c>
       <c r="E921" s="7">
-        <f>(D921-C921)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F921" t="s">
@@ -43731,7 +44010,7 @@
         <v>0.59375</v>
       </c>
       <c r="E922" s="7">
-        <f>(D922-C922)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F922" t="s">
@@ -43755,7 +44034,7 @@
         <v>0.625</v>
       </c>
       <c r="E923" s="7">
-        <f>(D923-C923)*24</f>
+        <f t="shared" si="27"/>
         <v>0.50000000000000089</v>
       </c>
       <c r="F923" t="s">
@@ -43779,7 +44058,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E924" s="7">
-        <f>(D924-C924)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F924" t="s">
@@ -43803,7 +44082,7 @@
         <v>0.5</v>
       </c>
       <c r="E925" s="7">
-        <f>(D925-C925)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F925" t="s">
@@ -43827,7 +44106,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E926" s="7">
-        <f>(D926-C926)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F926" t="s">
@@ -43851,7 +44130,7 @@
         <v>0.59375</v>
       </c>
       <c r="E927" s="7">
-        <f>(D927-C927)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F927" t="s">
@@ -43875,7 +44154,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E928" s="7">
-        <f>(D928-C928)*24</f>
+        <f t="shared" si="27"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F928" t="s">
@@ -43899,7 +44178,7 @@
         <v>0.5</v>
       </c>
       <c r="E929" s="7">
-        <f>(D929-C929)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F929" t="s">
@@ -43923,7 +44202,7 @@
         <v>0.59375</v>
       </c>
       <c r="E930" s="7">
-        <f>(D930-C930)*24</f>
+        <f t="shared" si="27"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F930" t="s">
@@ -43947,7 +44226,7 @@
         <v>0.6875</v>
       </c>
       <c r="E931" s="7">
-        <f>(D931-C931)*24</f>
+        <f t="shared" ref="E931:E962" si="28">(D931-C931)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F931" t="s">
@@ -43971,7 +44250,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E932" s="7">
-        <f>(D932-C932)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F932" t="s">
@@ -43995,7 +44274,7 @@
         <v>0.5</v>
       </c>
       <c r="E933" s="7">
-        <f>(D933-C933)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F933" t="s">
@@ -44019,7 +44298,7 @@
         <v>0.59375</v>
       </c>
       <c r="E934" s="7">
-        <f>(D934-C934)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F934" t="s">
@@ -44043,7 +44322,7 @@
         <v>0.6875</v>
       </c>
       <c r="E935" s="7">
-        <f>(D935-C935)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F935" t="s">
@@ -44067,7 +44346,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E936" s="7">
-        <f>(D936-C936)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F936" t="s">
@@ -44091,7 +44370,7 @@
         <v>0.5</v>
       </c>
       <c r="E937" s="7">
-        <f>(D937-C937)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F937" t="s">
@@ -44115,7 +44394,7 @@
         <v>0.59375</v>
       </c>
       <c r="E938" s="7">
-        <f>(D938-C938)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F938" t="s">
@@ -44139,7 +44418,7 @@
         <v>0.6875</v>
       </c>
       <c r="E939" s="7">
-        <f>(D939-C939)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F939" t="s">
@@ -44163,7 +44442,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E940" s="7">
-        <f>(D940-C940)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F940" t="s">
@@ -44187,7 +44466,7 @@
         <v>0.5</v>
       </c>
       <c r="E941" s="7">
-        <f>(D941-C941)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F941" t="s">
@@ -44211,7 +44490,7 @@
         <v>0.59375</v>
       </c>
       <c r="E942" s="7">
-        <f>(D942-C942)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F942" t="s">
@@ -44235,7 +44514,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E943" s="7">
-        <f>(D943-C943)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F943" t="s">
@@ -44259,7 +44538,7 @@
         <v>0.5</v>
       </c>
       <c r="E944" s="7">
-        <f>(D944-C944)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F944" t="s">
@@ -44283,7 +44562,7 @@
         <v>0.59375</v>
       </c>
       <c r="E945" s="7">
-        <f>(D945-C945)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F945" t="s">
@@ -44307,7 +44586,7 @@
         <v>0.6875</v>
       </c>
       <c r="E946" s="7">
-        <f>(D946-C946)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F946" t="s">
@@ -44331,7 +44610,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E947" s="7">
-        <f>(D947-C947)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F947" t="s">
@@ -44355,7 +44634,7 @@
         <v>0.5</v>
       </c>
       <c r="E948" s="7">
-        <f>(D948-C948)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F948" t="s">
@@ -44379,7 +44658,7 @@
         <v>0.59375</v>
       </c>
       <c r="E949" s="7">
-        <f>(D949-C949)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F949" t="s">
@@ -44403,7 +44682,7 @@
         <v>0.6875</v>
       </c>
       <c r="E950" s="7">
-        <f>(D950-C950)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F950" t="s">
@@ -44427,7 +44706,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E951" s="7">
-        <f>(D951-C951)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F951" t="s">
@@ -44451,7 +44730,7 @@
         <v>0.5</v>
       </c>
       <c r="E952" s="7">
-        <f>(D952-C952)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F952" t="s">
@@ -44475,7 +44754,7 @@
         <v>0.59375</v>
       </c>
       <c r="E953" s="7">
-        <f>(D953-C953)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F953" t="s">
@@ -44499,7 +44778,7 @@
         <v>0.6875</v>
       </c>
       <c r="E954" s="7">
-        <f>(D954-C954)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F954" t="s">
@@ -44523,7 +44802,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E955" s="7">
-        <f>(D955-C955)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F955" t="s">
@@ -44547,7 +44826,7 @@
         <v>0.5</v>
       </c>
       <c r="E956" s="7">
-        <f>(D956-C956)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F956" t="s">
@@ -44571,7 +44850,7 @@
         <v>0.59375</v>
       </c>
       <c r="E957" s="7">
-        <f>(D957-C957)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F957" t="s">
@@ -44595,7 +44874,7 @@
         <v>0.6875</v>
       </c>
       <c r="E958" s="7">
-        <f>(D958-C958)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F958" t="s">
@@ -44619,7 +44898,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E959" s="7">
-        <f>(D959-C959)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F959" t="s">
@@ -44643,7 +44922,7 @@
         <v>0.5</v>
       </c>
       <c r="E960" s="7">
-        <f>(D960-C960)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F960" t="s">
@@ -44667,7 +44946,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E961" s="7">
-        <f>(D961-C961)*24</f>
+        <f t="shared" si="28"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F961" t="s">
@@ -44691,7 +44970,7 @@
         <v>0.5</v>
       </c>
       <c r="E962" s="7">
-        <f>(D962-C962)*24</f>
+        <f t="shared" si="28"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F962" t="s">
@@ -44715,7 +44994,7 @@
         <v>0.59375</v>
       </c>
       <c r="E963" s="7">
-        <f>(D963-C963)*24</f>
+        <f t="shared" ref="E963:E994" si="29">(D963-C963)*24</f>
         <v>1.7499999999999991</v>
       </c>
       <c r="F963" t="s">
@@ -44739,7 +45018,7 @@
         <v>0.6875</v>
       </c>
       <c r="E964" s="7">
-        <f>(D964-C964)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F964" t="s">
@@ -44763,7 +45042,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E965" s="7">
-        <f>(D965-C965)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F965" t="s">
@@ -44787,7 +45066,7 @@
         <v>0.5</v>
       </c>
       <c r="E966" s="7">
-        <f>(D966-C966)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F966" t="s">
@@ -44811,7 +45090,7 @@
         <v>0.59375</v>
       </c>
       <c r="E967" s="7">
-        <f>(D967-C967)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F967" t="s">
@@ -44835,7 +45114,7 @@
         <v>0.6875</v>
       </c>
       <c r="E968" s="7">
-        <f>(D968-C968)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F968" t="s">
@@ -44859,7 +45138,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E969" s="7">
-        <f>(D969-C969)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F969" t="s">
@@ -44883,7 +45162,7 @@
         <v>0.5</v>
       </c>
       <c r="E970" s="7">
-        <f>(D970-C970)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F970" t="s">
@@ -44907,7 +45186,7 @@
         <v>0.59375</v>
       </c>
       <c r="E971" s="7">
-        <f>(D971-C971)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F971" t="s">
@@ -44931,7 +45210,7 @@
         <v>0.6875</v>
       </c>
       <c r="E972" s="7">
-        <f>(D972-C972)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F972" t="s">
@@ -44955,7 +45234,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E973" s="7">
-        <f>(D973-C973)*24</f>
+        <f t="shared" si="29"/>
         <v>0.68333333333333357</v>
       </c>
       <c r="F973" t="s">
@@ -44979,7 +45258,7 @@
         <v>0.5</v>
       </c>
       <c r="E974" s="7">
-        <f>(D974-C974)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F974" t="s">
@@ -45003,7 +45282,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E975" s="7">
-        <f>(D975-C975)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F975" t="s">
@@ -45027,7 +45306,7 @@
         <v>0.5</v>
       </c>
       <c r="E976" s="7">
-        <f>(D976-C976)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F976" t="s">
@@ -45051,7 +45330,7 @@
         <v>0.59375</v>
       </c>
       <c r="E977" s="7">
-        <f>(D977-C977)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F977" t="s">
@@ -45075,7 +45354,7 @@
         <v>0.6875</v>
       </c>
       <c r="E978" s="7">
-        <f>(D978-C978)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F978" t="s">
@@ -45099,7 +45378,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E979" s="7">
-        <f>(D979-C979)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F979" t="s">
@@ -45123,7 +45402,7 @@
         <v>0.5</v>
       </c>
       <c r="E980" s="7">
-        <f>(D980-C980)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F980" t="s">
@@ -45147,7 +45426,7 @@
         <v>0.59375</v>
       </c>
       <c r="E981" s="7">
-        <f>(D981-C981)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F981" t="s">
@@ -45171,7 +45450,7 @@
         <v>0.6875</v>
       </c>
       <c r="E982" s="7">
-        <f>(D982-C982)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F982" t="s">
@@ -45195,7 +45474,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E983" s="7">
-        <f>(D983-C983)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F983" t="s">
@@ -45219,7 +45498,7 @@
         <v>0.5</v>
       </c>
       <c r="E984" s="7">
-        <f>(D984-C984)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F984" t="s">
@@ -45243,7 +45522,7 @@
         <v>0.59375</v>
       </c>
       <c r="E985" s="7">
-        <f>(D985-C985)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F985" t="s">
@@ -45267,7 +45546,7 @@
         <v>0.6875</v>
       </c>
       <c r="E986" s="7">
-        <f>(D986-C986)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F986" t="s">
@@ -45291,7 +45570,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E987" s="7">
-        <f>(D987-C987)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F987" t="s">
@@ -45315,7 +45594,7 @@
         <v>0.5</v>
       </c>
       <c r="E988" s="7">
-        <f>(D988-C988)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F988" t="s">
@@ -45339,7 +45618,7 @@
         <v>0.59375</v>
       </c>
       <c r="E989" s="7">
-        <f>(D989-C989)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F989" t="s">
@@ -45363,7 +45642,7 @@
         <v>0.6875</v>
       </c>
       <c r="E990" s="7">
-        <f>(D990-C990)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F990" t="s">
@@ -45387,7 +45666,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E991" s="7">
-        <f>(D991-C991)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F991" t="s">
@@ -45411,7 +45690,7 @@
         <v>0.5</v>
       </c>
       <c r="E992" s="7">
-        <f>(D992-C992)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F992" t="s">
@@ -45435,7 +45714,7 @@
         <v>0.59375</v>
       </c>
       <c r="E993" s="7">
-        <f>(D993-C993)*24</f>
+        <f t="shared" si="29"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F993" t="s">
@@ -45459,7 +45738,7 @@
         <v>0.6875</v>
       </c>
       <c r="E994" s="7">
-        <f>(D994-C994)*24</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F994" t="s">
@@ -45483,7 +45762,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E995" s="7">
-        <f>(D995-C995)*24</f>
+        <f t="shared" ref="E995:E1026" si="30">(D995-C995)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F995" t="s">
@@ -45507,7 +45786,7 @@
         <v>0.5</v>
       </c>
       <c r="E996" s="7">
-        <f>(D996-C996)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F996" t="s">
@@ -45531,7 +45810,7 @@
         <v>0.59375</v>
       </c>
       <c r="E997" s="7">
-        <f>(D997-C997)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F997" t="s">
@@ -45555,7 +45834,7 @@
         <v>0.6875</v>
       </c>
       <c r="E998" s="7">
-        <f>(D998-C998)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F998" t="s">
@@ -45579,7 +45858,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E999" s="7">
-        <f>(D999-C999)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F999" t="s">
@@ -45603,7 +45882,7 @@
         <v>0.5</v>
       </c>
       <c r="E1000" s="7">
-        <f>(D1000-C1000)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1000" t="s">
@@ -45627,7 +45906,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1001" s="7">
-        <f>(D1001-C1001)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1001" t="s">
@@ -45651,7 +45930,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1002" s="7">
-        <f>(D1002-C1002)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1002" t="s">
@@ -45675,7 +45954,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1003" s="7">
-        <f>(D1003-C1003)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1003" t="s">
@@ -45699,7 +45978,7 @@
         <v>0.5</v>
       </c>
       <c r="E1004" s="7">
-        <f>(D1004-C1004)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1004" t="s">
@@ -45723,7 +46002,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1005" s="7">
-        <f>(D1005-C1005)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1005" t="s">
@@ -45747,7 +46026,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1006" s="7">
-        <f>(D1006-C1006)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1006" t="s">
@@ -45771,7 +46050,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1007" s="7">
-        <f>(D1007-C1007)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1007" t="s">
@@ -45795,7 +46074,7 @@
         <v>0.5</v>
       </c>
       <c r="E1008" s="7">
-        <f>(D1008-C1008)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1008" t="s">
@@ -45819,7 +46098,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1009" s="7">
-        <f>(D1009-C1009)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1009" t="s">
@@ -45843,7 +46122,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1010" s="7">
-        <f>(D1010-C1010)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1010" t="s">
@@ -45867,7 +46146,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1011" s="7">
-        <f>(D1011-C1011)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1011" t="s">
@@ -45891,7 +46170,7 @@
         <v>0.5</v>
       </c>
       <c r="E1012" s="7">
-        <f>(D1012-C1012)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1012" t="s">
@@ -45915,7 +46194,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1013" s="7">
-        <f>(D1013-C1013)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1013" t="s">
@@ -45939,7 +46218,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1014" s="7">
-        <f>(D1014-C1014)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1014" t="s">
@@ -45963,7 +46242,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1015" s="7">
-        <f>(D1015-C1015)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1015" t="s">
@@ -45987,7 +46266,7 @@
         <v>0.5</v>
       </c>
       <c r="E1016" s="7">
-        <f>(D1016-C1016)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1016" t="s">
@@ -46011,7 +46290,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1017" s="7">
-        <f>(D1017-C1017)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1017" t="s">
@@ -46035,7 +46314,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1018" s="7">
-        <f>(D1018-C1018)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1018" t="s">
@@ -46059,7 +46338,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1019" s="7">
-        <f>(D1019-C1019)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1019" t="s">
@@ -46083,7 +46362,7 @@
         <v>0.5</v>
       </c>
       <c r="E1020" s="7">
-        <f>(D1020-C1020)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1020" t="s">
@@ -46107,7 +46386,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1021" s="7">
-        <f>(D1021-C1021)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1021" t="s">
@@ -46131,7 +46410,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1022" s="7">
-        <f>(D1022-C1022)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1022" t="s">
@@ -46155,7 +46434,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1023" s="7">
-        <f>(D1023-C1023)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1023" t="s">
@@ -46179,7 +46458,7 @@
         <v>0.5</v>
       </c>
       <c r="E1024" s="7">
-        <f>(D1024-C1024)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1024" t="s">
@@ -46203,7 +46482,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1025" s="7">
-        <f>(D1025-C1025)*24</f>
+        <f t="shared" si="30"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1025" t="s">
@@ -46227,7 +46506,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1026" s="7">
-        <f>(D1026-C1026)*24</f>
+        <f t="shared" si="30"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1026" t="s">
@@ -46251,7 +46530,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1027" s="7">
-        <f>(D1027-C1027)*24</f>
+        <f t="shared" ref="E1027:E1058" si="31">(D1027-C1027)*24</f>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1027" t="s">
@@ -46275,7 +46554,7 @@
         <v>0.5</v>
       </c>
       <c r="E1028" s="7">
-        <f>(D1028-C1028)*24</f>
+        <f t="shared" si="31"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1028" t="s">
@@ -46299,7 +46578,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1029" s="7">
-        <f>(D1029-C1029)*24</f>
+        <f t="shared" si="31"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1029" t="s">
@@ -46323,7 +46602,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1030" s="7">
-        <f>(D1030-C1030)*24</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1030" t="s">
@@ -46347,7 +46626,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E1031" s="7">
-        <f>(D1031-C1031)*24</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1031" t="s">
@@ -46371,7 +46650,7 @@
         <v>0.5</v>
       </c>
       <c r="E1032" s="7">
-        <f>(D1032-C1032)*24</f>
+        <f t="shared" si="31"/>
         <v>1.7500000000000004</v>
       </c>
       <c r="F1032" t="s">
@@ -46395,7 +46674,7 @@
         <v>0.59375</v>
       </c>
       <c r="E1033" s="7">
-        <f>(D1033-C1033)*24</f>
+        <f t="shared" si="31"/>
         <v>1.7499999999999991</v>
       </c>
       <c r="F1033" t="s">
@@ -46419,7 +46698,7 @@
         <v>0.6875</v>
       </c>
       <c r="E1034" s="7">
-        <f>(D1034-C1034)*24</f>
+        <f t="shared" si="31"/>
         <v>2.0000000000000009</v>
       </c>
       <c r="F1034" t="s">
@@ -46432,7 +46711,7 @@
     <row r="1035" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1035" s="1"/>
       <c r="E1035" s="7">
-        <f>(D1035-C1035)*24</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -46978,7 +47257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15531D3-0E4A-4D4F-B1D5-EA40E229CA7B}">
   <dimension ref="A2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -47964,12 +48243,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="13dd7b14-ffae-4f1b-b4da-b4df494256d4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48212,17 +48490,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="13dd7b14-ffae-4f1b-b4da-b4df494256d4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA264025-6068-45F0-B156-261F00D05B20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F652CC6-37DD-486D-B496-B362F7E115A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9436a67b-e3bd-44b9-a2bf-3d28963189d7"/>
+    <ds:schemaRef ds:uri="13dd7b14-ffae-4f1b-b4da-b4df494256d4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -48247,18 +48535,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F652CC6-37DD-486D-B496-B362F7E115A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA264025-6068-45F0-B156-261F00D05B20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9436a67b-e3bd-44b9-a2bf-3d28963189d7"/>
-    <ds:schemaRef ds:uri="13dd7b14-ffae-4f1b-b4da-b4df494256d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>